--- a/StoreData.xlsx
+++ b/StoreData.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,7 +382,7 @@
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -647,7 +647,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +659,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/StoreData.xlsx
+++ b/StoreData.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14775" windowHeight="5955" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14775" windowHeight="5955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:N17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -373,8 +374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,10 +410,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -429,10 +430,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -449,10 +450,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>169</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -469,10 +470,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -489,10 +490,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>171</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -509,10 +510,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -529,10 +530,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>173</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -549,10 +550,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>174</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -569,10 +570,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>175</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -589,10 +590,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -646,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
